--- a/data/case1/18/Plm1_13.xlsx
+++ b/data/case1/18/Plm1_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
     <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.06693157883815104</v>
+        <v>-0.094902791605733228</v>
       </c>
       <c r="B1" s="0">
-        <v>0.066886936398290686</v>
+        <v>0.094790212782953631</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0035730667265685412</v>
+        <v>0.00096333064137077429</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.003713575381478762</v>
+        <v>-0.0012787598773158493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.10663998502057837</v>
+        <v>0.10420937245566719</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.10690373714077595</v>
+        <v>-0.1045174900675363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.17708048408635335</v>
+        <v>-0.17947492856357883</v>
       </c>
       <c r="B4" s="0">
-        <v>0.1763376029088235</v>
+        <v>0.17866520776028239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.17033760400950548</v>
+        <v>-0.17266520823422038</v>
       </c>
       <c r="B5" s="0">
-        <v>0.16884232952923917</v>
+        <v>0.17104292134561749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.081331763926396405</v>
+        <v>-0.072295378553744349</v>
       </c>
       <c r="B6" s="0">
-        <v>0.081246277658259203</v>
+        <v>0.072221365543691185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.061246278970809698</v>
+        <v>-0.052221366115269063</v>
       </c>
       <c r="B7" s="0">
-        <v>0.061069438224865991</v>
+        <v>0.052078361156768338</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.041069439547638531</v>
+        <v>-0.032078361732090777</v>
       </c>
       <c r="B8" s="0">
-        <v>0.040957336848596704</v>
+        <v>0.032003023431348865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.034957338010917383</v>
+        <v>-0.026003023930742053</v>
       </c>
       <c r="B9" s="0">
-        <v>0.03487509267068134</v>
+        <v>0.025952850489696644</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.028875093842458455</v>
+        <v>-0.056014786536906058</v>
       </c>
       <c r="B10" s="0">
-        <v>0.028874922277537962</v>
+        <v>0.055969004719926829</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024374923431516038</v>
+        <v>-0.051469005214208607</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024365074745578141</v>
+        <v>0.051391392554332782</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.018365075919848817</v>
+        <v>-0.045391393058936913</v>
       </c>
       <c r="B12" s="0">
-        <v>0.018327154221120967</v>
+        <v>0.045149688326154624</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.012327155402440226</v>
+        <v>-0.039149688838601371</v>
       </c>
       <c r="B13" s="0">
-        <v>0.012318057471823352</v>
+        <v>0.039083924368398471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.00031805872831114357</v>
+        <v>-0.027083924917072011</v>
       </c>
       <c r="B14" s="0">
-        <v>0.00030517482104830407</v>
+        <v>0.027052204531104351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0056948239960155078</v>
+        <v>-0.02105220504739691</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0057152051859699071</v>
+        <v>0.021027248734728943</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.011715204003936552</v>
+        <v>-0.015027249252571373</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.011768761675646555</v>
+        <v>0.015004344140423065</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090035045927967516</v>
+        <v>-0.0090043446603411681</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999987838540463</v>
+        <v>0.0089999994626328572</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.060460004267049783</v>
+        <v>-0.085753543917171271</v>
       </c>
       <c r="B18" s="0">
-        <v>0.060429065548198935</v>
+        <v>0.085681237789813736</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.051429066680090951</v>
+        <v>-0.076681238278197839</v>
       </c>
       <c r="B19" s="0">
-        <v>0.051179376419607792</v>
+        <v>0.076127275276403505</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018012508179186426</v>
+        <v>-0.067127275777965068</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004076726585438</v>
+        <v>0.067009963434815134</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090040778798892163</v>
+        <v>-0.058009963938929765</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999988457769575</v>
+        <v>0.057853776727209372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093926410769498148</v>
+        <v>-0.093930613065877466</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093621152565784627</v>
+        <v>0.09362321677124541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084621153704197205</v>
+        <v>-0.08462321726287314</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084123824342241527</v>
+        <v>0.084124538520087278</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042123825903985335</v>
+        <v>-0.04212453920678616</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998429516516</v>
+        <v>0.04199999930976972</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.10932875801481856</v>
+        <v>-0.092747543282722944</v>
       </c>
       <c r="B25" s="0">
-        <v>0.1091784792057382</v>
+        <v>0.092638406495424874</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.097606788459895455</v>
+        <v>-0.086638406987884053</v>
       </c>
       <c r="B26" s="0">
-        <v>0.097432589684331106</v>
+        <v>0.086503053219473713</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091432590831206362</v>
+        <v>-0.080503053714116035</v>
       </c>
       <c r="B27" s="0">
-        <v>0.090845064797107966</v>
+        <v>0.080058270797717768</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.084845065970079681</v>
+        <v>-0.074058271302134493</v>
       </c>
       <c r="B28" s="0">
-        <v>0.084457915612747847</v>
+        <v>0.073769466737068079</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.07245791687755343</v>
+        <v>-0.063634042611809605</v>
       </c>
       <c r="B29" s="0">
-        <v>0.072283607677338324</v>
+        <v>0.063497609154062218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.052283609048871416</v>
+        <v>-0.0421625587146508</v>
       </c>
       <c r="B30" s="0">
-        <v>0.051918563298555487</v>
+        <v>0.042018910828445222</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.036918564622917316</v>
+        <v>-0.027018911398076995</v>
       </c>
       <c r="B31" s="0">
-        <v>0.036815335626620538</v>
+        <v>0.027000782601028561</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.015815337027260234</v>
+        <v>-0.00600078320543318</v>
       </c>
       <c r="B32" s="0">
-        <v>0.015695481513072984</v>
+        <v>0.0059999994805099988</v>
       </c>
     </row>
   </sheetData>
